--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\Owner\Deer_GameFramework_Wolong\LubanTools\DesignerConfigs\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896A066-7788-452E-9F9A-AAB2A21D3121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5556" yWindow="1824" windowWidth="23040" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21555" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -112,98 +106,71 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Deer.TbUIForm_Config</t>
-  </si>
-  <si>
-    <t>UIForm_Config</t>
-  </si>
-  <si>
-    <t>J_界面相关/UIForm_Config.xlsx</t>
-  </si>
-  <si>
-    <t>Deer.TbSounds_Config</t>
-  </si>
-  <si>
-    <t>Sounds_Config</t>
-  </si>
-  <si>
-    <t>S_声音相关/Sounds_Config.xlsx</t>
-  </si>
-  <si>
-    <t>Deer.TbLanguage_Config</t>
-  </si>
-  <si>
-    <t>Language_Config</t>
-  </si>
-  <si>
-    <t>W_文字相关/Language_Config.xlsx</t>
-  </si>
-  <si>
-    <t>Deer.TbUIData_GameMode</t>
+    <t>TbUIData_GameMode</t>
   </si>
   <si>
     <t>UIData_GameMode</t>
   </si>
   <si>
-    <t>Deer.TbUIData_Race</t>
+    <t>T_例子业务逻辑/UIData_GameMode.xlsx</t>
+  </si>
+  <si>
+    <t>TbUIData_Race</t>
   </si>
   <si>
     <t>UIData_Race</t>
   </si>
   <si>
-    <t>Deer.TbUIData_Character</t>
+    <t>T_例子业务逻辑/UIData_Race.xlsx</t>
+  </si>
+  <si>
+    <t>TbUIData_Character</t>
   </si>
   <si>
     <t>UIData_Character</t>
   </si>
   <si>
-    <t>Deer.TbPlayerData_Character</t>
+    <t>T_例子业务逻辑/UIData_Character.xlsx</t>
+  </si>
+  <si>
+    <t>TbPlayerData_Character</t>
   </si>
   <si>
     <t>PlayerData_Character</t>
   </si>
   <si>
-    <t>Deer.TbEntityData</t>
+    <t>T_例子业务逻辑/PlayerData_Character.xlsx</t>
+  </si>
+  <si>
+    <t>TbEntityData</t>
   </si>
   <si>
     <t>EntityData</t>
   </si>
   <si>
-    <t>Deer.TbLevelData</t>
+    <t>T_例子业务逻辑/EntityData.xlsx</t>
+  </si>
+  <si>
+    <t>TbLevelData</t>
   </si>
   <si>
     <t>LevelData</t>
   </si>
   <si>
-    <t>T_例子业务逻辑/UIData_GameMode.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/UIData_Race.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/UIData_Character.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/PlayerData_Character.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/EntityData.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T_例子业务逻辑/LevelData_0.xlsx,T_例子业务逻辑/LevelData_1.xlsx,T_例子业务逻辑/LevelData_2.xlsx,T_例子业务逻辑/LevelData_3.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,9 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -229,12 +196,141 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +343,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,12 +532,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -269,28 +784,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -548,34 +1106,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.775" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="120.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.33203125" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="120.666666666667" customWidth="1"/>
+    <col min="6" max="6" width="69.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="32.1083333333333" customWidth="1"/>
     <col min="8" max="8" width="61" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="35.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="35.109375" customWidth="1"/>
+    <col min="10" max="10" width="35.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.8833333333333" customWidth="1"/>
+    <col min="12" max="12" width="35.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +1171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -648,7 +1206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="16.95" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -674,7 +1232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
@@ -684,11 +1242,13 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
@@ -698,115 +1258,71 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
         <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>43</v>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21555" windowHeight="11670"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -52,6 +52,9 @@
     <t>output</t>
   </si>
   <si>
+    <t>options</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -106,58 +109,40 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>TbUIData_GameMode</t>
-  </si>
-  <si>
-    <t>UIData_GameMode</t>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/UIData_GameMode.xlsx</t>
-  </si>
-  <si>
-    <t>TbUIData_Race</t>
-  </si>
-  <si>
-    <t>UIData_Race</t>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/UIData_Race.xlsx</t>
-  </si>
-  <si>
-    <t>TbUIData_Character</t>
-  </si>
-  <si>
-    <t>UIData_Character</t>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/UIData_Character.xlsx</t>
-  </si>
-  <si>
-    <t>TbPlayerData_Character</t>
-  </si>
-  <si>
-    <t>PlayerData_Character</t>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/PlayerData_Character.xlsx</t>
-  </si>
-  <si>
-    <t>TbEntityData</t>
-  </si>
-  <si>
-    <t>EntityData</t>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/EntityData.xlsx</t>
-  </si>
-  <si>
-    <t>TbLevelData</t>
-  </si>
-  <si>
-    <t>LevelData</t>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/LevelData_0.xlsx,T_例子业务逻辑/LevelData_1.xlsx,T_例子业务逻辑/LevelData_2.xlsx,T_例子业务逻辑/LevelData_3.xlsx</t>
+    <t>item.TbItem</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>道具配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbSkill</t>
+  </si>
+  <si>
+    <t>SkillBaseConfig</t>
+  </si>
+  <si>
+    <t>技能基础配置表@技能配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbBuff</t>
+  </si>
+  <si>
+    <t>BuffConfig</t>
+  </si>
+  <si>
+    <t>Buff基础配置表@Buff配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbBuffAttr</t>
+  </si>
+  <si>
+    <t>BuffAttrConfig</t>
+  </si>
+  <si>
+    <t>Buff数值配置表@Buff配置表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -170,7 +155,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,16 +171,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -224,14 +210,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,15 +646,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,31 +667,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,16 +697,16 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,17 +758,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,28 +1087,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="25.775" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.2166666666667" customWidth="1"/>
-    <col min="5" max="5" width="120.666666666667" customWidth="1"/>
-    <col min="6" max="6" width="69.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="32.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="61" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="35.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.8833333333333" customWidth="1"/>
-    <col min="12" max="12" width="35.1083333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="51.125" customWidth="1"/>
+    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,155 +1139,126 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.95" customHeight="1" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
         <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
         <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>36</v>
+      <c r="B6" t="s">
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
+      <c r="E7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="21555" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,40 +109,66 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>道具配置表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbSkill</t>
-  </si>
-  <si>
-    <t>SkillBaseConfig</t>
-  </si>
-  <si>
-    <t>技能基础配置表@技能配置表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbBuff</t>
-  </si>
-  <si>
-    <t>BuffConfig</t>
-  </si>
-  <si>
-    <t>Buff基础配置表@Buff配置表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbBuffAttr</t>
-  </si>
-  <si>
-    <t>BuffAttrConfig</t>
-  </si>
-  <si>
-    <t>Buff数值配置表@Buff配置表.xlsx</t>
+    <t>Cfg.TBPlayerLevelUp</t>
+  </si>
+  <si>
+    <t>PlayerLevelUpConfig</t>
+  </si>
+  <si>
+    <t>玩家等级配置表@玩家配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.TbItem</t>
+  </si>
+  <si>
+    <t>ItemConfig</t>
+  </si>
+  <si>
+    <t>物品配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.TbTask</t>
+  </si>
+  <si>
+    <t>TaskConfig</t>
+  </si>
+  <si>
+    <r>
+      <t>任务表</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="等线"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>Cfg.TbTreasureChest</t>
+  </si>
+  <si>
+    <t>TreasureChestConfig</t>
+  </si>
+  <si>
+    <r>
+      <t>宝箱配置表</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="等线"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -155,7 +181,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,45 +197,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +679,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -655,9 +688,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,28 +697,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,16 +730,16 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1090,12 +1123,12 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="39.375" customWidth="1"/>
     <col min="5" max="5" width="51.125" customWidth="1"/>

--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -109,13 +109,22 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Cfg.TBPlayerLevelUp</t>
+    <t>Cfg.TbPlayerLevelUp</t>
   </si>
   <si>
     <t>PlayerLevelUpConfig</t>
   </si>
   <si>
-    <t>玩家等级配置表@玩家配置表.xlsx</t>
+    <t>玩家等级表@玩家配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.TbPlayerBaseProperty</t>
+  </si>
+  <si>
+    <t>PlayerBasePropertyConfig</t>
+  </si>
+  <si>
+    <t>玩家基础属性表@玩家配置表.xlsx</t>
   </si>
   <si>
     <t>Cfg.TbItem</t>
@@ -124,7 +133,25 @@
     <t>ItemConfig</t>
   </si>
   <si>
-    <t>物品配置表.xlsx</t>
+    <t>物品表@物品配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.TbItemType</t>
+  </si>
+  <si>
+    <t>ItemTypeConfig</t>
+  </si>
+  <si>
+    <t>物品类型表@物品配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.TbItemQuality</t>
+  </si>
+  <si>
+    <t>ItemQualityConfig</t>
+  </si>
+  <si>
+    <t>物品质量表@物品配置表.xlsx</t>
   </si>
   <si>
     <t>Cfg.TbTask</t>
@@ -134,6 +161,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="等线"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>任务表</t>
     </r>
     <r>
@@ -156,6 +190,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="等线"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>宝箱配置表</t>
     </r>
     <r>
@@ -1120,13 +1161,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
@@ -1276,7 +1317,7 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1290,8 +1331,50 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -109,7 +109,7 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Cfg.TbPlayerLevelUp</t>
+    <t>Cfg.PlayerLevelUp</t>
   </si>
   <si>
     <t>PlayerLevelUpConfig</t>
@@ -118,16 +118,16 @@
     <t>玩家等级表@玩家配置表.xlsx</t>
   </si>
   <si>
-    <t>Cfg.TbPlayerBaseProperty</t>
-  </si>
-  <si>
-    <t>PlayerBasePropertyConfig</t>
-  </si>
-  <si>
-    <t>玩家基础属性表@玩家配置表.xlsx</t>
-  </si>
-  <si>
-    <t>Cfg.TbItem</t>
+    <t>Cfg.ItemBaseProperty</t>
+  </si>
+  <si>
+    <t>ItemBasePropertyConfig</t>
+  </si>
+  <si>
+    <t>物品基础属性表@物品配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.Item</t>
   </si>
   <si>
     <t>ItemConfig</t>
@@ -136,7 +136,7 @@
     <t>物品表@物品配置表.xlsx</t>
   </si>
   <si>
-    <t>Cfg.TbItemType</t>
+    <t>Cfg.ItemType</t>
   </si>
   <si>
     <t>ItemTypeConfig</t>
@@ -145,7 +145,7 @@
     <t>物品类型表@物品配置表.xlsx</t>
   </si>
   <si>
-    <t>Cfg.TbItemQuality</t>
+    <t>Cfg.ItemQuality</t>
   </si>
   <si>
     <t>ItemQualityConfig</t>
@@ -154,7 +154,7 @@
     <t>物品质量表@物品配置表.xlsx</t>
   </si>
   <si>
-    <t>Cfg.TbTask</t>
+    <t>Cfg.Task</t>
   </si>
   <si>
     <t>TaskConfig</t>
@@ -183,7 +183,7 @@
     </r>
   </si>
   <si>
-    <t>Cfg.TbTreasureChest</t>
+    <t>Cfg.TreasureChest</t>
   </si>
   <si>
     <t>TreasureChestConfig</t>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
